--- a/RawData/kinetic_characterization_of_xylose_monomer_and_oligomer_concentrations_during_dilute_acid_pretreatment.xlsx
+++ b/RawData/kinetic_characterization_of_xylose_monomer_and_oligomer_concentrations_during_dilute_acid_pretreatment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/1 - Monomeric Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/GitHub/Hemicellulose/HemicelluloseMachineLearning/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F0EA97-94F4-814A-8D88-E7A8A6923E4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9042D5-C976-C344-A42D-F569F529650E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2307,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y999"/>
+  <dimension ref="A1:Y995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2440,7 +2440,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D21" si="0">2000*0.5/100/98.079</f>
+        <f t="shared" ref="D3:D17" si="0">2000*0.5/100/98.079</f>
         <v>0.10195862518989794</v>
       </c>
       <c r="E3">
@@ -2646,13 +2646,13 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>175</v>
       </c>
-      <c r="C8" s="4">
-        <v>19</v>
+      <c r="C8">
+        <v>9</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -2668,7 +2668,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -2681,21 +2681,21 @@
       </c>
       <c r="R8" s="5"/>
       <c r="T8" s="2">
-        <v>3.9628521126760621</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="2">
-        <v>3.6253521126760599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>175</v>
       </c>
       <c r="C9" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -2711,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -2724,21 +2724,21 @@
       </c>
       <c r="R9" s="5"/>
       <c r="T9" s="2">
-        <v>1.5818661971830961</v>
+        <v>11.71531690140846</v>
       </c>
       <c r="Y9" s="2">
-        <v>1.3943661971831001</v>
+        <v>3.8028169014084598</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>175</v>
       </c>
       <c r="C10" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -2754,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2767,21 +2767,21 @@
       </c>
       <c r="R10" s="5"/>
       <c r="T10" s="2">
-        <v>1.0880281690140881</v>
+        <v>17.905457746478898</v>
       </c>
       <c r="Y10" s="2">
-        <v>0.93802816901408903</v>
+        <v>10.292957746478899</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>175</v>
       </c>
       <c r="C11" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -2797,7 +2797,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -2810,20 +2810,20 @@
       </c>
       <c r="R11" s="5"/>
       <c r="T11" s="2">
-        <v>1.0383802816901453</v>
+        <v>17.897007042253499</v>
       </c>
       <c r="Y11" s="2">
-        <v>0.963380281690146</v>
+        <v>13.2845070422535</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>175</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>9</v>
       </c>
       <c r="D12">
@@ -2840,7 +2840,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -2853,15 +2853,15 @@
       </c>
       <c r="R12" s="5"/>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>18.805985915493</v>
       </c>
       <c r="Y12" s="2">
-        <v>0</v>
+        <v>14.830985915493001</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>175</v>
@@ -2883,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -2896,15 +2896,15 @@
       </c>
       <c r="R13" s="5"/>
       <c r="T13" s="2">
-        <v>11.71531690140846</v>
+        <v>18.435211267605599</v>
       </c>
       <c r="Y13" s="2">
-        <v>3.8028169014084598</v>
+        <v>15.1352112676056</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>175</v>
@@ -2926,7 +2926,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -2939,15 +2939,15 @@
       </c>
       <c r="R14" s="5"/>
       <c r="T14" s="2">
-        <v>17.905457746478898</v>
+        <v>16.759330985915501</v>
       </c>
       <c r="Y14" s="2">
-        <v>10.292957746478899</v>
+        <v>14.1718309859155</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>175</v>
@@ -2969,7 +2969,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -2982,15 +2982,15 @@
       </c>
       <c r="R15" s="5"/>
       <c r="T15" s="2">
-        <v>17.897007042253499</v>
+        <v>13.3463028169014</v>
       </c>
       <c r="Y15" s="2">
-        <v>13.2845070422535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+        <v>11.4338028169014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>175</v>
@@ -3012,7 +3012,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -3025,15 +3025,15 @@
       </c>
       <c r="R16" s="5"/>
       <c r="T16" s="2">
-        <v>18.805985915493</v>
+        <v>13.2713028169014</v>
       </c>
       <c r="Y16" s="2">
-        <v>14.830985915493001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+        <v>11.4338028169014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>175</v>
@@ -3055,7 +3055,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -3068,184 +3068,16 @@
       </c>
       <c r="R17" s="5"/>
       <c r="T17" s="2">
-        <v>18.435211267605599</v>
+        <v>10.04683098591549</v>
       </c>
       <c r="Y17" s="2">
-        <v>15.1352112676056</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>175</v>
-      </c>
-      <c r="C18" s="4">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.10195862518989794</v>
-      </c>
-      <c r="E18">
-        <v>0.84</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>14</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>16.59</v>
-      </c>
-      <c r="R18" s="5"/>
-      <c r="T18" s="2">
-        <v>16.759330985915501</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>14.1718309859155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>175</v>
-      </c>
-      <c r="C19" s="4">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.10195862518989794</v>
-      </c>
-      <c r="E19">
-        <v>0.84</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>16.59</v>
-      </c>
-      <c r="R19" s="5"/>
-      <c r="T19" s="2">
-        <v>13.3463028169014</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>11.4338028169014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>175</v>
-      </c>
-      <c r="C20" s="4">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.10195862518989794</v>
-      </c>
-      <c r="E20">
-        <v>0.84</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>25</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>16.59</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="T20" s="2">
-        <v>13.2713028169014</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>11.4338028169014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>175</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.10195862518989794</v>
-      </c>
-      <c r="E21">
-        <v>0.84</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>30</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>16.59</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="T21" s="2">
-        <v>10.04683098591549</v>
-      </c>
-      <c r="Y21" s="2">
         <v>8.7718309859154893</v>
       </c>
     </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4220,10 +4052,6 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
